--- a/Code/Results/Cases/Case_4_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9922263353953661</v>
+        <v>1.072990800604276</v>
       </c>
       <c r="D2">
-        <v>1.011548267389532</v>
+        <v>1.071399269052526</v>
       </c>
       <c r="E2">
-        <v>1.000455362402984</v>
+        <v>1.076711303264512</v>
       </c>
       <c r="F2">
-        <v>1.011560956113953</v>
+        <v>1.081107597432229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036930660143536</v>
+        <v>1.044980875815597</v>
       </c>
       <c r="J2">
-        <v>1.014642067770655</v>
+        <v>1.07790756131058</v>
       </c>
       <c r="K2">
-        <v>1.022849027225632</v>
+        <v>1.074096545804653</v>
       </c>
       <c r="L2">
-        <v>1.011908356947413</v>
+        <v>1.079394515767882</v>
       </c>
       <c r="M2">
-        <v>1.022861544219775</v>
+        <v>1.083779283101807</v>
       </c>
       <c r="N2">
-        <v>1.016082975887961</v>
+        <v>1.079438313685367</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006207558337921</v>
+        <v>1.075361588182843</v>
       </c>
       <c r="D3">
-        <v>1.022822694940876</v>
+        <v>1.073296318464397</v>
       </c>
       <c r="E3">
-        <v>1.013868281995855</v>
+        <v>1.079036358024944</v>
       </c>
       <c r="F3">
-        <v>1.02409926524955</v>
+        <v>1.08326712903639</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041461598888527</v>
+        <v>1.045601643070414</v>
       </c>
       <c r="J3">
-        <v>1.026530417706109</v>
+        <v>1.079930243247953</v>
       </c>
       <c r="K3">
-        <v>1.033171651264744</v>
+        <v>1.075807474884754</v>
       </c>
       <c r="L3">
-        <v>1.024326738194421</v>
+        <v>1.081533447217192</v>
       </c>
       <c r="M3">
-        <v>1.034432804539896</v>
+        <v>1.085753952377518</v>
       </c>
       <c r="N3">
-        <v>1.027988208643936</v>
+        <v>1.081463868063096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014780540133677</v>
+        <v>1.076888202086994</v>
       </c>
       <c r="D4">
-        <v>1.029737881465289</v>
+        <v>1.074516910576057</v>
       </c>
       <c r="E4">
-        <v>1.022100321334183</v>
+        <v>1.080533768585569</v>
       </c>
       <c r="F4">
-        <v>1.031795963184994</v>
+        <v>1.084657597418943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044221027668535</v>
+        <v>1.045998642726188</v>
       </c>
       <c r="J4">
-        <v>1.033813568824935</v>
+        <v>1.081231545673189</v>
       </c>
       <c r="K4">
-        <v>1.039490170618638</v>
+        <v>1.076907219679291</v>
       </c>
       <c r="L4">
-        <v>1.031939135951498</v>
+        <v>1.082910094256724</v>
       </c>
       <c r="M4">
-        <v>1.041525206148779</v>
+        <v>1.087024435152986</v>
       </c>
       <c r="N4">
-        <v>1.03528170267274</v>
+        <v>1.082767018487037</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018282597506821</v>
+        <v>1.077528251587805</v>
       </c>
       <c r="D5">
-        <v>1.032562873773851</v>
+        <v>1.075028423420171</v>
       </c>
       <c r="E5">
-        <v>1.025464726901508</v>
+        <v>1.081161632173218</v>
       </c>
       <c r="F5">
-        <v>1.034941781745635</v>
+        <v>1.085240538021227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045343537465868</v>
+        <v>1.046164434611527</v>
       </c>
       <c r="J5">
-        <v>1.036787008771768</v>
+        <v>1.081776853242504</v>
       </c>
       <c r="K5">
-        <v>1.042068399542897</v>
+        <v>1.077367827269569</v>
       </c>
       <c r="L5">
-        <v>1.035048084015891</v>
+        <v>1.083487107781163</v>
       </c>
       <c r="M5">
-        <v>1.04442151569006</v>
+        <v>1.087556843897924</v>
       </c>
       <c r="N5">
-        <v>1.038259365245356</v>
+        <v>1.083313100455648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018864922379661</v>
+        <v>1.077635617985668</v>
       </c>
       <c r="D6">
-        <v>1.033032615596701</v>
+        <v>1.075114214419807</v>
       </c>
       <c r="E6">
-        <v>1.026024253650071</v>
+        <v>1.081266957793723</v>
       </c>
       <c r="F6">
-        <v>1.035464964160699</v>
+        <v>1.085338322859804</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045529906537287</v>
+        <v>1.046192207278126</v>
       </c>
       <c r="J6">
-        <v>1.037281329208918</v>
+        <v>1.081868310658066</v>
       </c>
       <c r="K6">
-        <v>1.042496933992706</v>
+        <v>1.077445065079253</v>
       </c>
       <c r="L6">
-        <v>1.035564996192247</v>
+        <v>1.083583890632942</v>
       </c>
       <c r="M6">
-        <v>1.044903054919731</v>
+        <v>1.087646138886101</v>
       </c>
       <c r="N6">
-        <v>1.038754387674226</v>
+        <v>1.083404687751231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014827722009187</v>
+        <v>1.076896761235066</v>
       </c>
       <c r="D7">
-        <v>1.029775941329761</v>
+        <v>1.074523751771798</v>
       </c>
       <c r="E7">
-        <v>1.022145642450203</v>
+        <v>1.080542164549169</v>
       </c>
       <c r="F7">
-        <v>1.031838339122364</v>
+        <v>1.084665392984372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044236169796648</v>
+        <v>1.046000862376594</v>
       </c>
       <c r="J7">
-        <v>1.03385363587879</v>
+        <v>1.081238838964982</v>
       </c>
       <c r="K7">
-        <v>1.039524917835652</v>
+        <v>1.076913381075825</v>
       </c>
       <c r="L7">
-        <v>1.031981024642839</v>
+        <v>1.082917811080872</v>
       </c>
       <c r="M7">
-        <v>1.041564231024141</v>
+        <v>1.087031555865178</v>
       </c>
       <c r="N7">
-        <v>1.035321826626407</v>
+        <v>1.082774322136141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9970569729483604</v>
+        <v>1.073793586920637</v>
       </c>
       <c r="D8">
-        <v>1.015443042796175</v>
+        <v>1.072041840392684</v>
       </c>
       <c r="E8">
-        <v>1.005087906348857</v>
+        <v>1.077498552283503</v>
       </c>
       <c r="F8">
-        <v>1.015891022874134</v>
+        <v>1.081838871464502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038500051170351</v>
+        <v>1.045191643702934</v>
       </c>
       <c r="J8">
-        <v>1.018750891971164</v>
+        <v>1.0785927134616</v>
       </c>
       <c r="K8">
-        <v>1.026417813820875</v>
+        <v>1.074676301817867</v>
       </c>
       <c r="L8">
-        <v>1.016199396970652</v>
+        <v>1.08011893036414</v>
       </c>
       <c r="M8">
-        <v>1.026859957958481</v>
+        <v>1.084448156906299</v>
       </c>
       <c r="N8">
-        <v>1.020197635090123</v>
+        <v>1.08012443883103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9614678696811527</v>
+        <v>1.06826642283627</v>
       </c>
       <c r="D9">
-        <v>0.9867757527028695</v>
+        <v>1.067613810180741</v>
       </c>
       <c r="E9">
-        <v>0.9710027377975081</v>
+        <v>1.072079409390682</v>
       </c>
       <c r="F9">
-        <v>0.9840458160086779</v>
+        <v>1.076803666483231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026862464205716</v>
+        <v>1.043729265929159</v>
       </c>
       <c r="J9">
-        <v>0.9884587242663151</v>
+        <v>1.073870697209203</v>
       </c>
       <c r="K9">
-        <v>1.000087090914025</v>
+        <v>1.070676594918023</v>
       </c>
       <c r="L9">
-        <v>0.9845844738447829</v>
+        <v>1.075128615463373</v>
       </c>
       <c r="M9">
-        <v>0.9974031532896569</v>
+        <v>1.079838640986246</v>
       </c>
       <c r="N9">
-        <v>0.9898624490325735</v>
+        <v>1.075395716773931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9336498050060672</v>
+        <v>1.064539223596386</v>
       </c>
       <c r="D10">
-        <v>0.964433026446526</v>
+        <v>1.064622908132459</v>
       </c>
       <c r="E10">
-        <v>0.9444356407537721</v>
+        <v>1.068426408264737</v>
       </c>
       <c r="F10">
-        <v>0.9592564594691874</v>
+        <v>1.073407778217123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017683050197451</v>
+        <v>1.042729001825527</v>
       </c>
       <c r="J10">
-        <v>0.9647678124228078</v>
+        <v>1.070680472769378</v>
       </c>
       <c r="K10">
-        <v>0.9794755851298078</v>
+        <v>1.067969263706533</v>
       </c>
       <c r="L10">
-        <v>0.9598862300063117</v>
+        <v>1.071760015793497</v>
       </c>
       <c r="M10">
-        <v>0.9744024937893225</v>
+        <v>1.076724839803492</v>
       </c>
       <c r="N10">
-        <v>0.9661378933768633</v>
+        <v>1.072200961849477</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9202158202878615</v>
+        <v>1.062914617225178</v>
       </c>
       <c r="D11">
-        <v>0.9536719404021266</v>
+        <v>1.06331809943095</v>
       </c>
       <c r="E11">
-        <v>0.9316312888817866</v>
+        <v>1.066834476261716</v>
       </c>
       <c r="F11">
-        <v>0.947322338349818</v>
+        <v>1.071927501215167</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013237661517203</v>
+        <v>1.042289672139772</v>
       </c>
       <c r="J11">
-        <v>0.9533304321903024</v>
+        <v>1.069288514195387</v>
       </c>
       <c r="K11">
-        <v>0.9695238169876069</v>
+        <v>1.066786799368026</v>
       </c>
       <c r="L11">
-        <v>0.947968965137995</v>
+        <v>1.070290913043939</v>
       </c>
       <c r="M11">
-        <v>0.9633110889875732</v>
+        <v>1.075366333353396</v>
       </c>
       <c r="N11">
-        <v>0.9546842707525416</v>
+        <v>1.070807026534651</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.914963729790677</v>
+        <v>1.062309503403344</v>
       </c>
       <c r="D12">
-        <v>0.9494707758153575</v>
+        <v>1.062831930881007</v>
       </c>
       <c r="E12">
-        <v>0.9266301045919939</v>
+        <v>1.066241583611099</v>
       </c>
       <c r="F12">
-        <v>0.9426637898387462</v>
+        <v>1.071376135002996</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011498758482041</v>
+        <v>1.042125535912837</v>
       </c>
       <c r="J12">
-        <v>0.948860292988756</v>
+        <v>1.068769843392243</v>
       </c>
       <c r="K12">
-        <v>0.9656345792218708</v>
+        <v>1.066346010399001</v>
       </c>
       <c r="L12">
-        <v>0.9433122207413462</v>
+        <v>1.069743599591129</v>
       </c>
       <c r="M12">
-        <v>0.9589785609756855</v>
+        <v>1.07486014424925</v>
       </c>
       <c r="N12">
-        <v>0.9502077834405968</v>
+        <v>1.070287619159474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9161032814221166</v>
+        <v>1.062439378499275</v>
       </c>
       <c r="D13">
-        <v>0.9503820080349038</v>
+        <v>1.062936284466663</v>
       </c>
       <c r="E13">
-        <v>0.9277149856159789</v>
+        <v>1.066368833363196</v>
       </c>
       <c r="F13">
-        <v>0.9436742074602567</v>
+        <v>1.071494474735243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011876074783137</v>
+        <v>1.042160786937347</v>
       </c>
       <c r="J13">
-        <v>0.9498301055429729</v>
+        <v>1.068881174817442</v>
       </c>
       <c r="K13">
-        <v>0.9664783424512157</v>
+        <v>1.066440632798001</v>
       </c>
       <c r="L13">
-        <v>0.9443224756294334</v>
+        <v>1.069861074444047</v>
       </c>
       <c r="M13">
-        <v>0.9599184014916747</v>
+        <v>1.074968795737603</v>
       </c>
       <c r="N13">
-        <v>0.9511789732398801</v>
+        <v>1.070399108688067</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.919787415072007</v>
+        <v>1.062864632565158</v>
       </c>
       <c r="D14">
-        <v>0.9533291272521374</v>
+        <v>1.06327794352988</v>
       </c>
       <c r="E14">
-        <v>0.9312232481826467</v>
+        <v>1.066785500070503</v>
       </c>
       <c r="F14">
-        <v>0.9469421929921299</v>
+        <v>1.07188195651056</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013095834551548</v>
+        <v>1.042276124058675</v>
       </c>
       <c r="J14">
-        <v>0.9529657762523485</v>
+        <v>1.069245674344333</v>
       </c>
       <c r="K14">
-        <v>0.9692065402276571</v>
+        <v>1.066750395862071</v>
       </c>
       <c r="L14">
-        <v>0.9475890677574003</v>
+        <v>1.070245705346236</v>
       </c>
       <c r="M14">
-        <v>0.9629576075529976</v>
+        <v>1.075324524087795</v>
       </c>
       <c r="N14">
-        <v>0.9543190969613293</v>
+        <v>1.070764125846095</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9220206348303288</v>
+        <v>1.063126423661596</v>
       </c>
       <c r="D15">
-        <v>0.9551164159728865</v>
+        <v>1.063488250295072</v>
       </c>
       <c r="E15">
-        <v>0.9333505068534127</v>
+        <v>1.067042011476146</v>
       </c>
       <c r="F15">
-        <v>0.9489241381121239</v>
+        <v>1.072120493240131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013835127735836</v>
+        <v>1.042347060722473</v>
       </c>
       <c r="J15">
-        <v>0.9548667399951155</v>
+        <v>1.069470036392558</v>
       </c>
       <c r="K15">
-        <v>0.970860528473843</v>
+        <v>1.066941041957613</v>
       </c>
       <c r="L15">
-        <v>0.949569523656473</v>
+        <v>1.070482472548993</v>
       </c>
       <c r="M15">
-        <v>0.9648004173124215</v>
+        <v>1.075543489416227</v>
       </c>
       <c r="N15">
-        <v>0.9562227602906544</v>
+        <v>1.070988806514163</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9345080073389308</v>
+        <v>1.064646813216611</v>
       </c>
       <c r="D16">
-        <v>0.9651211743009277</v>
+        <v>1.064709295379057</v>
       </c>
       <c r="E16">
-        <v>0.9452542009708407</v>
+        <v>1.068531841105037</v>
       </c>
       <c r="F16">
-        <v>0.9600197108170565</v>
+        <v>1.07350580805432</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017966852830147</v>
+        <v>1.042758026450537</v>
       </c>
       <c r="J16">
-        <v>0.9654985984544129</v>
+        <v>1.070772625752012</v>
       </c>
       <c r="K16">
-        <v>0.9801114594037802</v>
+        <v>1.068047522190784</v>
       </c>
       <c r="L16">
-        <v>0.9606478062502866</v>
+        <v>1.071857290388093</v>
       </c>
       <c r="M16">
-        <v>0.9751114654763648</v>
+        <v>1.076814780436707</v>
       </c>
       <c r="N16">
-        <v>0.9668697172084553</v>
+        <v>1.072293245699917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.941937424244086</v>
+        <v>1.06559760942154</v>
       </c>
       <c r="D17">
-        <v>0.9710816925723534</v>
+        <v>1.065472590108013</v>
       </c>
       <c r="E17">
-        <v>0.9523432855929599</v>
+        <v>1.069463615767462</v>
       </c>
       <c r="F17">
-        <v>0.9666313157950601</v>
+        <v>1.074372112871243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020422440981208</v>
+        <v>1.04301414036915</v>
       </c>
       <c r="J17">
-        <v>0.9718254260528216</v>
+        <v>1.071586842544691</v>
       </c>
       <c r="K17">
-        <v>0.9856165026727345</v>
+        <v>1.068738836096489</v>
       </c>
       <c r="L17">
-        <v>0.9672419005996461</v>
+        <v>1.072716837885929</v>
       </c>
       <c r="M17">
-        <v>0.9812508580545481</v>
+        <v>1.077609462449628</v>
       </c>
       <c r="N17">
-        <v>0.9732055296277509</v>
+        <v>1.073108618773834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.946141340396401</v>
+        <v>1.066151163663962</v>
       </c>
       <c r="D18">
-        <v>0.9744569065133633</v>
+        <v>1.065916871304312</v>
       </c>
       <c r="E18">
-        <v>0.9563568582018194</v>
+        <v>1.070006127590938</v>
       </c>
       <c r="F18">
-        <v>0.9703757159381821</v>
+        <v>1.074876468160185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021810739969621</v>
+        <v>1.043162929386635</v>
       </c>
       <c r="J18">
-        <v>0.9754056983242566</v>
+        <v>1.072060744784632</v>
       </c>
       <c r="K18">
-        <v>0.9887316111436305</v>
+        <v>1.069141089144235</v>
       </c>
       <c r="L18">
-        <v>0.9709739969722547</v>
+        <v>1.073217189909245</v>
       </c>
       <c r="M18">
-        <v>0.9847261767858266</v>
+        <v>1.078072005017721</v>
       </c>
       <c r="N18">
-        <v>0.9767908862964745</v>
+        <v>1.073583194009312</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9475541085971332</v>
+        <v>1.06633973843435</v>
       </c>
       <c r="D19">
-        <v>0.9755915622037159</v>
+        <v>1.066068202285297</v>
       </c>
       <c r="E19">
-        <v>0.9577060169725429</v>
+        <v>1.07019094601872</v>
       </c>
       <c r="F19">
-        <v>0.9716345724212724</v>
+        <v>1.075048281313979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022277068564988</v>
+        <v>1.043213561686759</v>
       </c>
       <c r="J19">
-        <v>0.976608908310004</v>
+        <v>1.072222162180441</v>
       </c>
       <c r="K19">
-        <v>0.9897784636862217</v>
+        <v>1.069278082264397</v>
       </c>
       <c r="L19">
-        <v>0.9722283288792446</v>
+        <v>1.073387627606987</v>
       </c>
       <c r="M19">
-        <v>0.9858942931527201</v>
+        <v>1.078229554875127</v>
       </c>
       <c r="N19">
-        <v>0.9779958049784119</v>
+        <v>1.073744840636338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9411540396511732</v>
+        <v>1.065495704822117</v>
       </c>
       <c r="D20">
-        <v>0.9704529260801201</v>
+        <v>1.065390792899751</v>
       </c>
       <c r="E20">
-        <v>0.9515955479655961</v>
+        <v>1.069363746549342</v>
       </c>
       <c r="F20">
-        <v>0.9659338160826216</v>
+        <v>1.074279264719705</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020163633975302</v>
+        <v>1.042986723733701</v>
       </c>
       <c r="J20">
-        <v>0.971158271116599</v>
+        <v>1.071499590284023</v>
       </c>
       <c r="K20">
-        <v>0.9850360144614794</v>
+        <v>1.068664766177037</v>
       </c>
       <c r="L20">
-        <v>0.966546502033626</v>
+        <v>1.072624721136899</v>
       </c>
       <c r="M20">
-        <v>0.9806033485875866</v>
+        <v>1.077524302489527</v>
       </c>
       <c r="N20">
-        <v>0.9725374272549954</v>
+        <v>1.073021242604947</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9187103035723425</v>
+        <v>1.062739452182637</v>
       </c>
       <c r="D21">
-        <v>0.9524673155478781</v>
+        <v>1.063177375331917</v>
       </c>
       <c r="E21">
-        <v>0.9301974172011096</v>
+        <v>1.066662846100039</v>
       </c>
       <c r="F21">
-        <v>0.9459865385638718</v>
+        <v>1.071767895283429</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012739236656455</v>
+        <v>1.042242186502152</v>
       </c>
       <c r="J21">
-        <v>0.9520489706366603</v>
+        <v>1.06913838384875</v>
       </c>
       <c r="K21">
-        <v>0.9684088597779975</v>
+        <v>1.066659222006103</v>
       </c>
       <c r="L21">
-        <v>0.9466339577103824</v>
+        <v>1.07013248634302</v>
       </c>
       <c r="M21">
-        <v>0.9620689365265918</v>
+        <v>1.075219814920883</v>
       </c>
       <c r="N21">
-        <v>0.9534009893765075</v>
+        <v>1.070656682985702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9030374176905986</v>
+        <v>1.060996839241147</v>
       </c>
       <c r="D22">
-        <v>0.9399444394368804</v>
+        <v>1.061776985390642</v>
       </c>
       <c r="E22">
-        <v>0.915283807087522</v>
+        <v>1.064955525144747</v>
       </c>
       <c r="F22">
-        <v>0.9321010438096724</v>
+        <v>1.070180047625395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007549673219654</v>
+        <v>1.041768563598322</v>
       </c>
       <c r="J22">
-        <v>0.9387134520627876</v>
+        <v>1.067644313523762</v>
       </c>
       <c r="K22">
-        <v>0.9568074849529514</v>
+        <v>1.065389157844942</v>
       </c>
       <c r="L22">
-        <v>0.9327435564602389</v>
+        <v>1.068556102506975</v>
       </c>
       <c r="M22">
-        <v>0.9491492786169888</v>
+        <v>1.07376173151812</v>
       </c>
       <c r="N22">
-        <v>0.9400465328366543</v>
+        <v>1.069160490909481</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9115181994736222</v>
+        <v>1.061921564271205</v>
       </c>
       <c r="D23">
-        <v>0.9467166213945504</v>
+        <v>1.062520200320308</v>
       </c>
       <c r="E23">
-        <v>0.9233506627472577</v>
+        <v>1.065861493973108</v>
       </c>
       <c r="F23">
-        <v>0.9396099135927691</v>
+        <v>1.071022650812149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010357861451497</v>
+        <v>1.042020167371517</v>
       </c>
       <c r="J23">
-        <v>0.9459282682989156</v>
+        <v>1.068437263701417</v>
       </c>
       <c r="K23">
-        <v>0.9630837206362146</v>
+        <v>1.066063319209307</v>
       </c>
       <c r="L23">
-        <v>0.9402580648590063</v>
+        <v>1.069392682721067</v>
       </c>
       <c r="M23">
-        <v>0.9561375486254372</v>
+        <v>1.074535572829546</v>
       </c>
       <c r="N23">
-        <v>0.9472715949393893</v>
+        <v>1.069954567167341</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.941508413965669</v>
+        <v>1.065541754301559</v>
       </c>
       <c r="D24">
-        <v>0.9707373492433394</v>
+        <v>1.065427756426643</v>
       </c>
       <c r="E24">
-        <v>0.9519337899813666</v>
+        <v>1.069408876165425</v>
       </c>
       <c r="F24">
-        <v>0.9662493292062267</v>
+        <v>1.0743212217227</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020280712507784</v>
+        <v>1.042999113977875</v>
       </c>
       <c r="J24">
-        <v>0.9714600666815578</v>
+        <v>1.071539018964133</v>
       </c>
       <c r="K24">
-        <v>0.9852986057143731</v>
+        <v>1.068698238207524</v>
       </c>
       <c r="L24">
-        <v>0.9668610721247494</v>
+        <v>1.072666347841553</v>
       </c>
       <c r="M24">
-        <v>0.9808962538353035</v>
+        <v>1.077562785642164</v>
       </c>
       <c r="N24">
-        <v>0.9728396514042728</v>
+        <v>1.073060727278305</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9712803996445147</v>
+        <v>1.069702598179955</v>
       </c>
       <c r="D25">
-        <v>0.994672442796814</v>
+        <v>1.068765252826035</v>
       </c>
       <c r="E25">
-        <v>0.9803901518916545</v>
+        <v>1.07348728289371</v>
       </c>
       <c r="F25">
-        <v>0.9928125336593004</v>
+        <v>1.078112095426578</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030086411249597</v>
+        <v>1.044111729525686</v>
       </c>
       <c r="J25">
-        <v>0.996814515031251</v>
+        <v>1.075098712728854</v>
       </c>
       <c r="K25">
-        <v>1.007354029071059</v>
+        <v>1.071717662368455</v>
       </c>
       <c r="L25">
-        <v>0.9933007096753574</v>
+        <v>1.076425898855231</v>
       </c>
       <c r="M25">
-        <v>1.005523459979389</v>
+        <v>1.081037329083564</v>
       </c>
       <c r="N25">
-        <v>0.9982301059788184</v>
+        <v>1.076625476216475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072990800604276</v>
+        <v>0.992226335395366</v>
       </c>
       <c r="D2">
-        <v>1.071399269052526</v>
+        <v>1.011548267389532</v>
       </c>
       <c r="E2">
-        <v>1.076711303264512</v>
+        <v>1.000455362402984</v>
       </c>
       <c r="F2">
-        <v>1.081107597432229</v>
+        <v>1.011560956113952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044980875815597</v>
+        <v>1.036930660143536</v>
       </c>
       <c r="J2">
-        <v>1.07790756131058</v>
+        <v>1.014642067770655</v>
       </c>
       <c r="K2">
-        <v>1.074096545804653</v>
+        <v>1.022849027225631</v>
       </c>
       <c r="L2">
-        <v>1.079394515767882</v>
+        <v>1.011908356947413</v>
       </c>
       <c r="M2">
-        <v>1.083779283101807</v>
+        <v>1.022861544219774</v>
       </c>
       <c r="N2">
-        <v>1.079438313685367</v>
+        <v>1.016082975887961</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075361588182843</v>
+        <v>1.006207558337922</v>
       </c>
       <c r="D3">
-        <v>1.073296318464397</v>
+        <v>1.022822694940877</v>
       </c>
       <c r="E3">
-        <v>1.079036358024944</v>
+        <v>1.013868281995857</v>
       </c>
       <c r="F3">
-        <v>1.08326712903639</v>
+        <v>1.024099265249551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045601643070414</v>
+        <v>1.041461598888527</v>
       </c>
       <c r="J3">
-        <v>1.079930243247953</v>
+        <v>1.02653041770611</v>
       </c>
       <c r="K3">
-        <v>1.075807474884754</v>
+        <v>1.033171651264745</v>
       </c>
       <c r="L3">
-        <v>1.081533447217192</v>
+        <v>1.024326738194422</v>
       </c>
       <c r="M3">
-        <v>1.085753952377518</v>
+        <v>1.034432804539897</v>
       </c>
       <c r="N3">
-        <v>1.081463868063096</v>
+        <v>1.027988208643937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076888202086994</v>
+        <v>1.014780540133679</v>
       </c>
       <c r="D4">
-        <v>1.074516910576057</v>
+        <v>1.02973788146529</v>
       </c>
       <c r="E4">
-        <v>1.080533768585569</v>
+        <v>1.022100321334184</v>
       </c>
       <c r="F4">
-        <v>1.084657597418943</v>
+        <v>1.031795963184995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045998642726188</v>
+        <v>1.044221027668536</v>
       </c>
       <c r="J4">
-        <v>1.081231545673189</v>
+        <v>1.033813568824937</v>
       </c>
       <c r="K4">
-        <v>1.076907219679291</v>
+        <v>1.039490170618639</v>
       </c>
       <c r="L4">
-        <v>1.082910094256724</v>
+        <v>1.0319391359515</v>
       </c>
       <c r="M4">
-        <v>1.087024435152986</v>
+        <v>1.04152520614878</v>
       </c>
       <c r="N4">
-        <v>1.082767018487037</v>
+        <v>1.035281702672742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077528251587805</v>
+        <v>1.018282597506819</v>
       </c>
       <c r="D5">
-        <v>1.075028423420171</v>
+        <v>1.032562873773849</v>
       </c>
       <c r="E5">
-        <v>1.081161632173218</v>
+        <v>1.025464726901507</v>
       </c>
       <c r="F5">
-        <v>1.085240538021227</v>
+        <v>1.034941781745633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046164434611527</v>
+        <v>1.045343537465868</v>
       </c>
       <c r="J5">
-        <v>1.081776853242504</v>
+        <v>1.036787008771766</v>
       </c>
       <c r="K5">
-        <v>1.077367827269569</v>
+        <v>1.042068399542896</v>
       </c>
       <c r="L5">
-        <v>1.083487107781163</v>
+        <v>1.03504808401589</v>
       </c>
       <c r="M5">
-        <v>1.087556843897924</v>
+        <v>1.044421515690059</v>
       </c>
       <c r="N5">
-        <v>1.083313100455648</v>
+        <v>1.038259365245354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077635617985668</v>
+        <v>1.018864922379661</v>
       </c>
       <c r="D6">
-        <v>1.075114214419807</v>
+        <v>1.0330326155967</v>
       </c>
       <c r="E6">
-        <v>1.081266957793723</v>
+        <v>1.026024253650072</v>
       </c>
       <c r="F6">
-        <v>1.085338322859804</v>
+        <v>1.035464964160699</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046192207278126</v>
+        <v>1.045529906537287</v>
       </c>
       <c r="J6">
-        <v>1.081868310658066</v>
+        <v>1.037281329208918</v>
       </c>
       <c r="K6">
-        <v>1.077445065079253</v>
+        <v>1.042496933992706</v>
       </c>
       <c r="L6">
-        <v>1.083583890632942</v>
+        <v>1.035564996192247</v>
       </c>
       <c r="M6">
-        <v>1.087646138886101</v>
+        <v>1.044903054919731</v>
       </c>
       <c r="N6">
-        <v>1.083404687751231</v>
+        <v>1.038754387674226</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076896761235066</v>
+        <v>1.014827722009189</v>
       </c>
       <c r="D7">
-        <v>1.074523751771798</v>
+        <v>1.029775941329763</v>
       </c>
       <c r="E7">
-        <v>1.080542164549169</v>
+        <v>1.022145642450204</v>
       </c>
       <c r="F7">
-        <v>1.084665392984372</v>
+        <v>1.031838339122365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046000862376594</v>
+        <v>1.044236169796649</v>
       </c>
       <c r="J7">
-        <v>1.081238838964982</v>
+        <v>1.033853635878792</v>
       </c>
       <c r="K7">
-        <v>1.076913381075825</v>
+        <v>1.039524917835654</v>
       </c>
       <c r="L7">
-        <v>1.082917811080872</v>
+        <v>1.031981024642841</v>
       </c>
       <c r="M7">
-        <v>1.087031555865178</v>
+        <v>1.041564231024142</v>
       </c>
       <c r="N7">
-        <v>1.082774322136141</v>
+        <v>1.035321826626409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073793586920637</v>
+        <v>0.9970569729483613</v>
       </c>
       <c r="D8">
-        <v>1.072041840392684</v>
+        <v>1.015443042796175</v>
       </c>
       <c r="E8">
-        <v>1.077498552283503</v>
+        <v>1.005087906348858</v>
       </c>
       <c r="F8">
-        <v>1.081838871464502</v>
+        <v>1.015891022874134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045191643702934</v>
+        <v>1.038500051170351</v>
       </c>
       <c r="J8">
-        <v>1.0785927134616</v>
+        <v>1.018750891971164</v>
       </c>
       <c r="K8">
-        <v>1.074676301817867</v>
+        <v>1.026417813820876</v>
       </c>
       <c r="L8">
-        <v>1.08011893036414</v>
+        <v>1.016199396970653</v>
       </c>
       <c r="M8">
-        <v>1.084448156906299</v>
+        <v>1.026859957958481</v>
       </c>
       <c r="N8">
-        <v>1.08012443883103</v>
+        <v>1.020197635090124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06826642283627</v>
+        <v>0.9614678696811548</v>
       </c>
       <c r="D9">
-        <v>1.067613810180741</v>
+        <v>0.9867757527028713</v>
       </c>
       <c r="E9">
-        <v>1.072079409390682</v>
+        <v>0.9710027377975103</v>
       </c>
       <c r="F9">
-        <v>1.076803666483231</v>
+        <v>0.9840458160086801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043729265929159</v>
+        <v>1.026862464205717</v>
       </c>
       <c r="J9">
-        <v>1.073870697209203</v>
+        <v>0.9884587242663174</v>
       </c>
       <c r="K9">
-        <v>1.070676594918023</v>
+        <v>1.000087090914027</v>
       </c>
       <c r="L9">
-        <v>1.075128615463373</v>
+        <v>0.9845844738447851</v>
       </c>
       <c r="M9">
-        <v>1.079838640986246</v>
+        <v>0.997403153289659</v>
       </c>
       <c r="N9">
-        <v>1.075395716773931</v>
+        <v>0.9898624490325758</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064539223596386</v>
+        <v>0.9336498050060675</v>
       </c>
       <c r="D10">
-        <v>1.064622908132459</v>
+        <v>0.9644330264465261</v>
       </c>
       <c r="E10">
-        <v>1.068426408264737</v>
+        <v>0.9444356407537724</v>
       </c>
       <c r="F10">
-        <v>1.073407778217123</v>
+        <v>0.9592564594691874</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042729001825527</v>
+        <v>1.017683050197451</v>
       </c>
       <c r="J10">
-        <v>1.070680472769378</v>
+        <v>0.9647678124228083</v>
       </c>
       <c r="K10">
-        <v>1.067969263706533</v>
+        <v>0.979475585129808</v>
       </c>
       <c r="L10">
-        <v>1.071760015793497</v>
+        <v>0.959886230006312</v>
       </c>
       <c r="M10">
-        <v>1.076724839803492</v>
+        <v>0.9744024937893228</v>
       </c>
       <c r="N10">
-        <v>1.072200961849477</v>
+        <v>0.9661378933768635</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062914617225178</v>
+        <v>0.9202158202878619</v>
       </c>
       <c r="D11">
-        <v>1.06331809943095</v>
+        <v>0.9536719404021266</v>
       </c>
       <c r="E11">
-        <v>1.066834476261716</v>
+        <v>0.9316312888817867</v>
       </c>
       <c r="F11">
-        <v>1.071927501215167</v>
+        <v>0.9473223383498186</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042289672139772</v>
+        <v>1.013237661517203</v>
       </c>
       <c r="J11">
-        <v>1.069288514195387</v>
+        <v>0.9533304321903028</v>
       </c>
       <c r="K11">
-        <v>1.066786799368026</v>
+        <v>0.9695238169876071</v>
       </c>
       <c r="L11">
-        <v>1.070290913043939</v>
+        <v>0.9479689651379952</v>
       </c>
       <c r="M11">
-        <v>1.075366333353396</v>
+        <v>0.9633110889875737</v>
       </c>
       <c r="N11">
-        <v>1.070807026534651</v>
+        <v>0.9546842707525417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062309503403344</v>
+        <v>0.9149637297906801</v>
       </c>
       <c r="D12">
-        <v>1.062831930881007</v>
+        <v>0.9494707758153601</v>
       </c>
       <c r="E12">
-        <v>1.066241583611099</v>
+        <v>0.9266301045919969</v>
       </c>
       <c r="F12">
-        <v>1.071376135002996</v>
+        <v>0.9426637898387484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042125535912837</v>
+        <v>1.011498758482043</v>
       </c>
       <c r="J12">
-        <v>1.068769843392243</v>
+        <v>0.9488602929887588</v>
       </c>
       <c r="K12">
-        <v>1.066346010399001</v>
+        <v>0.9656345792218735</v>
       </c>
       <c r="L12">
-        <v>1.069743599591129</v>
+        <v>0.9433122207413493</v>
       </c>
       <c r="M12">
-        <v>1.07486014424925</v>
+        <v>0.9589785609756878</v>
       </c>
       <c r="N12">
-        <v>1.070287619159474</v>
+        <v>0.9502077834405998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062439378499275</v>
+        <v>0.9161032814221165</v>
       </c>
       <c r="D13">
-        <v>1.062936284466663</v>
+        <v>0.9503820080349037</v>
       </c>
       <c r="E13">
-        <v>1.066368833363196</v>
+        <v>0.9277149856159788</v>
       </c>
       <c r="F13">
-        <v>1.071494474735243</v>
+        <v>0.9436742074602567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042160786937347</v>
+        <v>1.011876074783137</v>
       </c>
       <c r="J13">
-        <v>1.068881174817442</v>
+        <v>0.9498301055429728</v>
       </c>
       <c r="K13">
-        <v>1.066440632798001</v>
+        <v>0.9664783424512158</v>
       </c>
       <c r="L13">
-        <v>1.069861074444047</v>
+        <v>0.9443224756294335</v>
       </c>
       <c r="M13">
-        <v>1.074968795737603</v>
+        <v>0.9599184014916746</v>
       </c>
       <c r="N13">
-        <v>1.070399108688067</v>
+        <v>0.9511789732398799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062864632565158</v>
+        <v>0.9197874150720096</v>
       </c>
       <c r="D14">
-        <v>1.06327794352988</v>
+        <v>0.9533291272521397</v>
       </c>
       <c r="E14">
-        <v>1.066785500070503</v>
+        <v>0.9312232481826496</v>
       </c>
       <c r="F14">
-        <v>1.07188195651056</v>
+        <v>0.9469421929921324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042276124058675</v>
+        <v>1.013095834551549</v>
       </c>
       <c r="J14">
-        <v>1.069245674344333</v>
+        <v>0.9529657762523509</v>
       </c>
       <c r="K14">
-        <v>1.066750395862071</v>
+        <v>0.9692065402276594</v>
       </c>
       <c r="L14">
-        <v>1.070245705346236</v>
+        <v>0.9475890677574029</v>
       </c>
       <c r="M14">
-        <v>1.075324524087795</v>
+        <v>0.962957607553</v>
       </c>
       <c r="N14">
-        <v>1.070764125846095</v>
+        <v>0.9543190969613319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063126423661596</v>
+        <v>0.9220206348303271</v>
       </c>
       <c r="D15">
-        <v>1.063488250295072</v>
+        <v>0.9551164159728851</v>
       </c>
       <c r="E15">
-        <v>1.067042011476146</v>
+        <v>0.9333505068534114</v>
       </c>
       <c r="F15">
-        <v>1.072120493240131</v>
+        <v>0.9489241381121227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042347060722473</v>
+        <v>1.013835127735836</v>
       </c>
       <c r="J15">
-        <v>1.069470036392558</v>
+        <v>0.954866739995114</v>
       </c>
       <c r="K15">
-        <v>1.066941041957613</v>
+        <v>0.9708605284738416</v>
       </c>
       <c r="L15">
-        <v>1.070482472548993</v>
+        <v>0.9495695236564716</v>
       </c>
       <c r="M15">
-        <v>1.075543489416227</v>
+        <v>0.9648004173124202</v>
       </c>
       <c r="N15">
-        <v>1.070988806514163</v>
+        <v>0.9562227602906531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064646813216611</v>
+        <v>0.9345080073389338</v>
       </c>
       <c r="D16">
-        <v>1.064709295379057</v>
+        <v>0.9651211743009305</v>
       </c>
       <c r="E16">
-        <v>1.068531841105037</v>
+        <v>0.9452542009708441</v>
       </c>
       <c r="F16">
-        <v>1.07350580805432</v>
+        <v>0.9600197108170597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042758026450537</v>
+        <v>1.017966852830148</v>
       </c>
       <c r="J16">
-        <v>1.070772625752012</v>
+        <v>0.965498598454416</v>
       </c>
       <c r="K16">
-        <v>1.068047522190784</v>
+        <v>0.9801114594037827</v>
       </c>
       <c r="L16">
-        <v>1.071857290388093</v>
+        <v>0.9606478062502898</v>
       </c>
       <c r="M16">
-        <v>1.076814780436707</v>
+        <v>0.9751114654763682</v>
       </c>
       <c r="N16">
-        <v>1.072293245699917</v>
+        <v>0.9668697172084586</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06559760942154</v>
+        <v>0.941937424244083</v>
       </c>
       <c r="D17">
-        <v>1.065472590108013</v>
+        <v>0.9710816925723509</v>
       </c>
       <c r="E17">
-        <v>1.069463615767462</v>
+        <v>0.9523432855929566</v>
       </c>
       <c r="F17">
-        <v>1.074372112871243</v>
+        <v>0.9666313157950573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04301414036915</v>
+        <v>1.020422440981207</v>
       </c>
       <c r="J17">
-        <v>1.071586842544691</v>
+        <v>0.9718254260528186</v>
       </c>
       <c r="K17">
-        <v>1.068738836096489</v>
+        <v>0.985616502672732</v>
       </c>
       <c r="L17">
-        <v>1.072716837885929</v>
+        <v>0.9672419005996428</v>
       </c>
       <c r="M17">
-        <v>1.077609462449628</v>
+        <v>0.9812508580545457</v>
       </c>
       <c r="N17">
-        <v>1.073108618773834</v>
+        <v>0.9732055296277483</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066151163663962</v>
+        <v>0.9461413403963989</v>
       </c>
       <c r="D18">
-        <v>1.065916871304312</v>
+        <v>0.9744569065133614</v>
       </c>
       <c r="E18">
-        <v>1.070006127590938</v>
+        <v>0.9563568582018174</v>
       </c>
       <c r="F18">
-        <v>1.074876468160185</v>
+        <v>0.9703757159381801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043162929386635</v>
+        <v>1.02181073996962</v>
       </c>
       <c r="J18">
-        <v>1.072060744784632</v>
+        <v>0.9754056983242546</v>
       </c>
       <c r="K18">
-        <v>1.069141089144235</v>
+        <v>0.9887316111436287</v>
       </c>
       <c r="L18">
-        <v>1.073217189909245</v>
+        <v>0.970973996972253</v>
       </c>
       <c r="M18">
-        <v>1.078072005017721</v>
+        <v>0.9847261767858249</v>
       </c>
       <c r="N18">
-        <v>1.073583194009312</v>
+        <v>0.9767908862964724</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.06633973843435</v>
+        <v>0.9475541085971354</v>
       </c>
       <c r="D19">
-        <v>1.066068202285297</v>
+        <v>0.9755915622037173</v>
       </c>
       <c r="E19">
-        <v>1.07019094601872</v>
+        <v>0.9577060169725446</v>
       </c>
       <c r="F19">
-        <v>1.075048281313979</v>
+        <v>0.971634572421274</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043213561686759</v>
+        <v>1.022277068564989</v>
       </c>
       <c r="J19">
-        <v>1.072222162180441</v>
+        <v>0.9766089083100061</v>
       </c>
       <c r="K19">
-        <v>1.069278082264397</v>
+        <v>0.9897784636862231</v>
       </c>
       <c r="L19">
-        <v>1.073387627606987</v>
+        <v>0.9722283288792465</v>
       </c>
       <c r="M19">
-        <v>1.078229554875127</v>
+        <v>0.9858942931527221</v>
       </c>
       <c r="N19">
-        <v>1.073744840636338</v>
+        <v>0.977995804978414</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065495704822117</v>
+        <v>0.9411540396511793</v>
       </c>
       <c r="D20">
-        <v>1.065390792899751</v>
+        <v>0.9704529260801252</v>
       </c>
       <c r="E20">
-        <v>1.069363746549342</v>
+        <v>0.9515955479656029</v>
       </c>
       <c r="F20">
-        <v>1.074279264719705</v>
+        <v>0.9659338160826272</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042986723733701</v>
+        <v>1.020163633975304</v>
       </c>
       <c r="J20">
-        <v>1.071499590284023</v>
+        <v>0.9711582711166049</v>
       </c>
       <c r="K20">
-        <v>1.068664766177037</v>
+        <v>0.9850360144614844</v>
       </c>
       <c r="L20">
-        <v>1.072624721136899</v>
+        <v>0.9665465020336326</v>
       </c>
       <c r="M20">
-        <v>1.077524302489527</v>
+        <v>0.980603348587592</v>
       </c>
       <c r="N20">
-        <v>1.073021242604947</v>
+        <v>0.9725374272550011</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062739452182637</v>
+        <v>0.9187103035723382</v>
       </c>
       <c r="D21">
-        <v>1.063177375331917</v>
+        <v>0.9524673155478742</v>
       </c>
       <c r="E21">
-        <v>1.066662846100039</v>
+        <v>0.9301974172011053</v>
       </c>
       <c r="F21">
-        <v>1.071767895283429</v>
+        <v>0.9459865385638677</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042242186502152</v>
+        <v>1.012739236656453</v>
       </c>
       <c r="J21">
-        <v>1.06913838384875</v>
+        <v>0.9520489706366559</v>
       </c>
       <c r="K21">
-        <v>1.066659222006103</v>
+        <v>0.968408859777994</v>
       </c>
       <c r="L21">
-        <v>1.07013248634302</v>
+        <v>0.9466339577103781</v>
       </c>
       <c r="M21">
-        <v>1.075219814920883</v>
+        <v>0.9620689365265878</v>
       </c>
       <c r="N21">
-        <v>1.070656682985702</v>
+        <v>0.9534009893765034</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060996839241147</v>
+        <v>0.9030374176906011</v>
       </c>
       <c r="D22">
-        <v>1.061776985390642</v>
+        <v>0.9399444394368826</v>
       </c>
       <c r="E22">
-        <v>1.064955525144747</v>
+        <v>0.9152838070875243</v>
       </c>
       <c r="F22">
-        <v>1.070180047625395</v>
+        <v>0.9321010438096744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041768563598322</v>
+        <v>1.007549673219655</v>
       </c>
       <c r="J22">
-        <v>1.067644313523762</v>
+        <v>0.9387134520627897</v>
       </c>
       <c r="K22">
-        <v>1.065389157844942</v>
+        <v>0.9568074849529535</v>
       </c>
       <c r="L22">
-        <v>1.068556102506975</v>
+        <v>0.9327435564602412</v>
       </c>
       <c r="M22">
-        <v>1.07376173151812</v>
+        <v>0.9491492786169907</v>
       </c>
       <c r="N22">
-        <v>1.069160490909481</v>
+        <v>0.9400465328366566</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061921564271205</v>
+        <v>0.9115181994736237</v>
       </c>
       <c r="D23">
-        <v>1.062520200320308</v>
+        <v>0.9467166213945514</v>
       </c>
       <c r="E23">
-        <v>1.065861493973108</v>
+        <v>0.9233506627472591</v>
       </c>
       <c r="F23">
-        <v>1.071022650812149</v>
+        <v>0.9396099135927705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042020167371517</v>
+        <v>1.010357861451497</v>
       </c>
       <c r="J23">
-        <v>1.068437263701417</v>
+        <v>0.945928268298917</v>
       </c>
       <c r="K23">
-        <v>1.066063319209307</v>
+        <v>0.9630837206362158</v>
       </c>
       <c r="L23">
-        <v>1.069392682721067</v>
+        <v>0.9402580648590076</v>
       </c>
       <c r="M23">
-        <v>1.074535572829546</v>
+        <v>0.9561375486254384</v>
       </c>
       <c r="N23">
-        <v>1.069954567167341</v>
+        <v>0.9472715949393904</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065541754301559</v>
+        <v>0.9415084139656745</v>
       </c>
       <c r="D24">
-        <v>1.065427756426643</v>
+        <v>0.9707373492433438</v>
       </c>
       <c r="E24">
-        <v>1.069408876165425</v>
+        <v>0.9519337899813719</v>
       </c>
       <c r="F24">
-        <v>1.0743212217227</v>
+        <v>0.9662493292062312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042999113977875</v>
+        <v>1.020280712507786</v>
       </c>
       <c r="J24">
-        <v>1.071539018964133</v>
+        <v>0.9714600666815629</v>
       </c>
       <c r="K24">
-        <v>1.068698238207524</v>
+        <v>0.9852986057143773</v>
       </c>
       <c r="L24">
-        <v>1.072666347841553</v>
+        <v>0.9668610721247546</v>
       </c>
       <c r="M24">
-        <v>1.077562785642164</v>
+        <v>0.980896253835308</v>
       </c>
       <c r="N24">
-        <v>1.073060727278305</v>
+        <v>0.9728396514042779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069702598179955</v>
+        <v>0.9712803996445144</v>
       </c>
       <c r="D25">
-        <v>1.068765252826035</v>
+        <v>0.9946724427968139</v>
       </c>
       <c r="E25">
-        <v>1.07348728289371</v>
+        <v>0.980390151891654</v>
       </c>
       <c r="F25">
-        <v>1.078112095426578</v>
+        <v>0.9928125336593004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044111729525686</v>
+        <v>1.030086411249597</v>
       </c>
       <c r="J25">
-        <v>1.075098712728854</v>
+        <v>0.9968145150312506</v>
       </c>
       <c r="K25">
-        <v>1.071717662368455</v>
+        <v>1.007354029071059</v>
       </c>
       <c r="L25">
-        <v>1.076425898855231</v>
+        <v>0.9933007096753568</v>
       </c>
       <c r="M25">
-        <v>1.081037329083564</v>
+        <v>1.005523459979389</v>
       </c>
       <c r="N25">
-        <v>1.076625476216475</v>
+        <v>0.998230105978818</v>
       </c>
     </row>
   </sheetData>
